--- a/ChocolateSales.xlsx
+++ b/ChocolateSales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Excel-DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0F89D2-ADDB-42F0-9A96-81FFBB3E0DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C5240B-9374-4BE7-971E-4FA9B8413EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'3'!$B$4:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'9'!$C$24:$D$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$11:$F$11</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'6'!$S$5:$S$304</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'6'!$Q$5:$Q$304</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'6'!$Q$5:$Q$304</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'6'!$S$5:$S$304</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'6'!$S$5:$S$304</definedName>
     <definedName name="_xlcn.WorksheetConnection_beginnerDAcourseblank.xlsxdata1" hidden="1">data[]</definedName>
     <definedName name="Slicer_Geography">#N/A</definedName>
@@ -39,16 +39,16 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
-    <pivotCache cacheId="38" r:id="rId13"/>
-    <pivotCache cacheId="41" r:id="rId14"/>
-    <pivotCache cacheId="99" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="37" r:id="rId16"/>
-        <pivotCache cacheId="48" r:id="rId17"/>
+        <pivotCache cacheId="4" r:id="rId16"/>
+        <pivotCache cacheId="5" r:id="rId17"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -406,7 +406,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="\$#,##0;\(\$#,##0\);\$#,##0"/>
     <numFmt numFmtId="168" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="170" formatCode="0%;\-0%;0%"/>
+    <numFmt numFmtId="169" formatCode="0%;\-0%;0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -678,9 +678,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,7 +692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -2944,7 +2944,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3015,10 +3015,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4751,23 +4751,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>231815</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>94655</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1242060</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04780D01-C3AC-411C-83E5-5E867BDB888B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A42F8C-4F8E-4711-92D2-4A837CE607B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4775,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -4783,15 +4783,16 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="19990" t="19990" r="19990" b="19990"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="231815" y="757595"/>
-          <a:ext cx="1261705" cy="1204555"/>
+          <a:off x="350520" y="777240"/>
+          <a:ext cx="1417320" cy="1430566"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4901,7 +4902,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="Chart 1" title="Amount vs Units">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68698C9-B611-4E15-A464-4F7A97BDFC1B}"/>
@@ -5179,8 +5180,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Geography 1">
@@ -5203,7 +5204,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8408,7 +8409,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B473279-52AE-4A96-ADD2-C907A7B572E0}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6B473279-52AE-4A96-ADD2-C907A7B572E0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -8571,7 +8572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F36A16E2-366B-4C5B-B435-762B1E6D29FA}" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F36A16E2-366B-4C5B-B435-762B1E6D29FA}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C4:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -8670,7 +8671,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38FC107F-D31A-46EF-BC6F-C6649B817BF5}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{38FC107F-D31A-46EF-BC6F-C6649B817BF5}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H5:I18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -8787,7 +8788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9248859A-B745-410E-8CA3-BA256D597C51}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9248859A-B745-410E-8CA3-BA256D597C51}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -8904,7 +8905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{902AE34B-3C09-413C-B512-CC7B1F848B09}" name="PivotTable6" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{902AE34B-3C09-413C-B512-CC7B1F848B09}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9051,7 +9052,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7184D6B-D3FF-4AD6-9C61-ED8C7DD96BF0}" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D7184D6B-D3FF-4AD6-9C61-ED8C7DD96BF0}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:F27" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -9729,8 +9730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="B1:AA658"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12:Z33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19198,17 +19199,17 @@
     <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:20" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L20</f>
         <v>Dynamic country-level Sales Report</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="29"/>
@@ -19293,7 +19294,7 @@
       <c r="J8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="38" t="s">
         <v>85</v>
       </c>
       <c r="Q8" t="s">
@@ -19322,7 +19323,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H9,data[Geography],$C$4)</f>
         <v>174</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="39">
         <f>IF(I9&gt;12000,1,-1)</f>
         <v>-1</v>
       </c>
@@ -19356,7 +19357,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H10,data[Geography],$C$4)</f>
         <v>507</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="39">
         <f t="shared" ref="K10:K18" si="0">IF(I10&gt;12000,1,-1)</f>
         <v>-1</v>
       </c>
@@ -19394,7 +19395,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H11,data[Geography],$C$4)</f>
         <v>708</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19428,7 +19429,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H12,data[Geography],$C$4)</f>
         <v>978</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19462,7 +19463,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H13,data[Geography],$C$4)</f>
         <v>1515</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19496,7 +19497,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H14,data[Geography],$C$4)</f>
         <v>1188</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19519,7 +19520,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H15,data[Geography],$C$4)</f>
         <v>1416</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19539,7 +19540,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H16,data[Geography],$C$4)</f>
         <v>1122</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19559,7 +19560,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H17,data[Geography],$C$4)</f>
         <v>417</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19579,7 +19580,7 @@
         <f>SUMIFS(data[Units],data[Sales Person],$H18,data[Geography],$C$4)</f>
         <v>735</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -19591,16 +19592,16 @@
       <c r="H19" s="29"/>
       <c r="I19" s="36"/>
       <c r="J19" s="29"/>
-      <c r="K19" s="44"/>
+      <c r="K19" s="43"/>
       <c r="T19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>6</v>
       </c>
       <c r="T20" t="s">
@@ -19628,7 +19629,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="37" t="s">
@@ -19932,6 +19933,17 @@
           <xm:sqref>I9:I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B331DADC-BAA3-4395-BB1B-5DB936243CD4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D25:D46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="5" id="{E90EFA2D-35E6-477E-B8FE-AAA25DA10C8F}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -19950,17 +19962,6 @@
           </x14:cfRule>
           <xm:sqref>K9:K19</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B331DADC-BAA3-4395-BB1B-5DB936243CD4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D25:D46</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -19971,7 +19972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA98CF1-7C71-4F7F-AD0D-85D5A3DD506F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -19984,8 +19985,8 @@
     <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L21</f>
         <v>Which products to discontinue?</v>
       </c>
@@ -20020,7 +20021,7 @@
       <c r="E5" s="27">
         <v>14946.919999999998</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>0.44549849482876808</v>
       </c>
     </row>
@@ -20037,7 +20038,7 @@
       <c r="E6" s="27">
         <v>30189.32</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>0.85333597150771667</v>
       </c>
     </row>
@@ -20054,7 +20055,7 @@
       <c r="E7" s="27">
         <v>26000</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>0.68834056973419466</v>
       </c>
     </row>
@@ -20071,7 +20072,7 @@
       <c r="E8" s="27">
         <v>29518.43</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="44">
         <v>0.75181290273285284</v>
       </c>
     </row>
@@ -20088,7 +20089,7 @@
       <c r="E9" s="27">
         <v>19525.600000000002</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>0.45215941458444298</v>
       </c>
     </row>
@@ -20105,7 +20106,7 @@
       <c r="E10" s="27">
         <v>29800.160000000003</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>0.66601466118362251</v>
       </c>
     </row>
@@ -20122,7 +20123,7 @@
       <c r="E11" s="27">
         <v>29721.27</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>0.62874214634765502</v>
       </c>
     </row>
@@ -20139,7 +20140,7 @@
       <c r="E12" s="27">
         <v>40814.559999999998</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>0.78263777564717163</v>
       </c>
     </row>
@@ -20156,7 +20157,7 @@
       <c r="E13" s="27">
         <v>31390.480000000003</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>0.57374031291124439</v>
       </c>
     </row>
@@ -20173,7 +20174,7 @@
       <c r="E14" s="27">
         <v>44884.12</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>0.79238966174705183</v>
       </c>
     </row>
@@ -20190,7 +20191,7 @@
       <c r="E15" s="27">
         <v>29678.099999999995</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="44">
         <v>0.51729240744614091</v>
       </c>
     </row>
@@ -20207,7 +20208,7 @@
       <c r="E16" s="27">
         <v>36700.840000000004</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <v>0.6326749297522799</v>
       </c>
     </row>
@@ -20224,7 +20225,7 @@
       <c r="E17" s="27">
         <v>43177.340000000004</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <v>0.6951641416174269</v>
       </c>
     </row>
@@ -20241,7 +20242,7 @@
       <c r="E18" s="27">
         <v>56471.590000000004</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <v>0.88623201142480512</v>
       </c>
     </row>
@@ -20258,7 +20259,7 @@
       <c r="E19" s="27">
         <v>46234.960000000006</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <v>0.69753873542235578</v>
       </c>
     </row>
@@ -20275,7 +20276,7 @@
       <c r="E20" s="27">
         <v>25899.020000000011</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <v>0.38945894736842124</v>
       </c>
     </row>
@@ -20292,7 +20293,7 @@
       <c r="E21" s="27">
         <v>50988.91</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <v>0.73928042220643464</v>
       </c>
     </row>
@@ -20309,7 +20310,7 @@
       <c r="E22" s="27">
         <v>46226.020000000004</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="44">
         <v>0.6683924233661076</v>
       </c>
     </row>
@@ -20326,7 +20327,7 @@
       <c r="E23" s="27">
         <v>19572.14</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <v>0.28177164164063284</v>
       </c>
     </row>
@@ -20343,7 +20344,7 @@
       <c r="E24" s="27">
         <v>58277.8</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="44">
         <v>0.82930570773981471</v>
       </c>
     </row>
@@ -20360,7 +20361,7 @@
       <c r="E25" s="27">
         <v>52063.35</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="44">
         <v>0.72343365709283425</v>
       </c>
     </row>
@@ -20377,7 +20378,7 @@
       <c r="E26" s="27">
         <v>39084.340000000004</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="44">
         <v>0.54004034653807365</v>
       </c>
     </row>
@@ -20394,7 +20395,7 @@
       <c r="E27" s="27">
         <v>801165.2699999999</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="44">
         <v>0.64564854952456696</v>
       </c>
     </row>
@@ -20437,8 +20438,8 @@
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:4" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L12</f>
         <v>Quick statistics</v>
       </c>
@@ -20568,8 +20569,8 @@
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:6" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L13</f>
         <v>Exploratory Data Analysis (EDA)</v>
       </c>
@@ -25763,8 +25764,8 @@
     <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:14" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L14</f>
         <v>Sales by country (with formulas)</v>
       </c>
@@ -26019,8 +26020,8 @@
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:5" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L15</f>
         <v>Sales by country (with pivots)</v>
       </c>
@@ -26184,8 +26185,8 @@
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:4" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L16</f>
         <v>Top 5 products by $ per unit</v>
       </c>
@@ -26269,8 +26270,8 @@
     <col min="18" max="18" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:20" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L17</f>
         <v>Are there any anomalies in the data?</v>
       </c>
@@ -31420,8 +31421,8 @@
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:9" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L18</f>
         <v>Best and Worst Sales person by country</v>
       </c>
@@ -31653,8 +31654,8 @@
     <col min="3" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="38" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="38" t="str">
+    <row r="1" spans="1:3" s="45" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="str">
         <f>Data!L19</f>
         <v>Profits by product (using products table) - See column Z</v>
       </c>
